--- a/Semantic Resources/Modus 1.0/Botanical Analysis Nomenclature Modus.xlsx
+++ b/Semantic Resources/Modus 1.0/Botanical Analysis Nomenclature Modus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jellsworth/analysis-nomenclature/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AD94435-47ED-3240-B572-60722A38479B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D0D29EB-3D22-2640-9DD4-4330700BBFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="500" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17200" yWindow="760" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Botanical Analysis" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="387">
   <si>
     <t>Tissue Item</t>
   </si>
@@ -1577,82 +1577,19 @@
     <t>B-Zn.12.13</t>
   </si>
   <si>
-    <t>Chemometrics</t>
-  </si>
-  <si>
-    <t>19 (=NIR)</t>
-  </si>
-  <si>
-    <t>15 (=Chemometrics)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magnesium </t>
-  </si>
-  <si>
-    <t>N (NIR-CM)</t>
-  </si>
-  <si>
-    <t>NO3 (NIR-CM)</t>
-  </si>
-  <si>
-    <t>S (NIR-CM)</t>
-  </si>
-  <si>
-    <t>P (NIR-CM)</t>
-  </si>
-  <si>
-    <t>K (NIR-CM)</t>
-  </si>
-  <si>
-    <t>Mg (NIR-CM)</t>
-  </si>
-  <si>
-    <t>Ca (NIR-CM)</t>
-  </si>
-  <si>
-    <t>B (NIR-CM)</t>
-  </si>
-  <si>
-    <t>Zn (NIR-CM)</t>
-  </si>
-  <si>
-    <t>Mn (NIR-CM)</t>
-  </si>
-  <si>
-    <t>Cu (NIR-CM)</t>
-  </si>
-  <si>
-    <t>B-N.19.15</t>
-  </si>
-  <si>
-    <t>B-NO3.19.15</t>
-  </si>
-  <si>
-    <t>B-S.19.15</t>
-  </si>
-  <si>
-    <t>B-P.19.15</t>
-  </si>
-  <si>
-    <t>B-K.19.15</t>
-  </si>
-  <si>
-    <t>B-Mg.19.15</t>
-  </si>
-  <si>
-    <t>B-Ca.19.15</t>
-  </si>
-  <si>
-    <t>B-B.19.15</t>
-  </si>
-  <si>
-    <t>B-Zn.19.15</t>
-  </si>
-  <si>
-    <t>B-Mn.19.15</t>
-  </si>
-  <si>
-    <t>B-Cu.19.15</t>
+    <t>UV VIS/Descrete analyser Vanadium reduction method</t>
+  </si>
+  <si>
+    <t>Cl (AA)</t>
+  </si>
+  <si>
+    <t>NO3-N (AA)</t>
+  </si>
+  <si>
+    <t>B-Cl.01.11</t>
+  </si>
+  <si>
+    <t>B-NO3.01.00</t>
   </si>
 </sst>
 </file>
@@ -1857,7 +1794,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1873,48 +1810,29 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -2273,24 +2191,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q196"/>
+  <dimension ref="A1:Q187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B161" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B163" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A197" sqref="A197"/>
+      <selection pane="bottomRight" activeCell="B190" sqref="B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="22" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="27.1640625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="8" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" style="7" customWidth="1"/>
     <col min="10" max="10" width="25.83203125" customWidth="1"/>
     <col min="11" max="11" width="28.1640625" customWidth="1"/>
     <col min="12" max="12" width="18.33203125" customWidth="1"/>
@@ -2298,25 +2216,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="49" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="12" t="s">
         <v>252</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -2327,69 +2245,68 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="20" t="s">
+      <c r="A2" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="F2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="21" t="s">
+      <c r="A3" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16">
-      <c r="A4" s="22" t="s">
+      <c r="A4" t="s">
         <v>207</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -2403,25 +2320,25 @@
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:17" ht="16">
-      <c r="A5" s="22" t="s">
+      <c r="A5" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H5" t="s">
@@ -2438,25 +2355,25 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="16">
-      <c r="A6" s="22" t="s">
+      <c r="A6" t="s">
         <v>209</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="J6" s="2"/>
@@ -2468,22 +2385,22 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="16">
-      <c r="A7" s="22" t="s">
+      <c r="A7" t="s">
         <v>275</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" t="s">
         <v>319</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -2497,25 +2414,25 @@
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="16">
-      <c r="A8" s="20" t="s">
+      <c r="A8" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="14" t="s">
+      <c r="F8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="2"/>
@@ -2527,25 +2444,25 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1">
-      <c r="A9" s="20" t="s">
+      <c r="A9" t="s">
         <v>199</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="14" t="s">
+      <c r="F9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>15</v>
       </c>
       <c r="J9" s="3" t="s">
@@ -2558,28 +2475,28 @@
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" ht="16">
-      <c r="A10" s="22" t="s">
+      <c r="A10" t="s">
         <v>300</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="29" t="s">
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="20" t="s">
         <v>311</v>
       </c>
       <c r="K10" s="5"/>
@@ -2589,25 +2506,25 @@
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" ht="16">
-      <c r="A11" s="20" t="s">
+      <c r="A11" t="s">
         <v>202</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" t="s">
         <v>247</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="17" t="s">
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="11" t="s">
         <v>15</v>
       </c>
       <c r="J11" s="2"/>
@@ -2618,25 +2535,25 @@
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" ht="16">
-      <c r="A12" s="20" t="s">
+      <c r="A12" t="s">
         <v>156</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="13" t="s">
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="14" t="s">
+      <c r="F12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>15</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -2648,28 +2565,28 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" ht="16">
-      <c r="A13" s="22" t="s">
+      <c r="A13" t="s">
         <v>301</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="29" t="s">
+      <c r="F13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="20" t="s">
         <v>312</v>
       </c>
       <c r="N13" s="2"/>
@@ -2678,31 +2595,31 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" ht="16">
-      <c r="A14" s="21" t="s">
+      <c r="A14" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="17" t="s">
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="18" t="s">
+      <c r="F14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H14" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="20" t="s">
         <v>313</v>
       </c>
       <c r="N14" s="2"/>
@@ -2711,25 +2628,25 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" ht="16">
-      <c r="A15" s="21" t="s">
+      <c r="A15" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="17" t="s">
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="18" t="s">
+      <c r="F15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="2"/>
@@ -2738,25 +2655,25 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" ht="16">
-      <c r="A16" s="22" t="s">
+      <c r="A16" t="s">
         <v>322</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="N16" s="2"/>
@@ -2765,25 +2682,25 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" ht="16">
-      <c r="A17" s="22" t="s">
+      <c r="A17" t="s">
         <v>244</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" t="s">
         <v>163</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="18" t="s">
+      <c r="F17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>15</v>
       </c>
       <c r="N17" s="2"/>
@@ -2792,25 +2709,25 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" ht="17">
-      <c r="A18" s="22" t="s">
+      <c r="A18" t="s">
         <v>245</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="18" t="s">
+      <c r="F18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>15</v>
       </c>
       <c r="J18" s="6" t="s">
@@ -2825,25 +2742,25 @@
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" ht="17">
-      <c r="A19" s="22" t="s">
+      <c r="A19" t="s">
         <v>246</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="18" t="s">
+      <c r="F19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>15</v>
       </c>
       <c r="J19" s="6" t="s">
@@ -2860,28 +2777,28 @@
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17" ht="16">
-      <c r="A20" s="22" t="s">
+      <c r="A20" t="s">
         <v>276</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" t="s">
         <v>319</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="F20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="2" t="s">
         <v>62</v>
       </c>
       <c r="L20" s="2"/>
@@ -2892,31 +2809,31 @@
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:17" ht="16">
-      <c r="A21" s="20" t="s">
+      <c r="A21" t="s">
         <v>175</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="F21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="2" t="s">
         <v>66</v>
       </c>
       <c r="L21" s="2"/>
@@ -2927,34 +2844,34 @@
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17" ht="16">
-      <c r="A22" s="20" t="s">
+      <c r="A22" t="s">
         <v>176</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" t="s">
         <v>137</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F22" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="14" t="s">
+      <c r="F22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H22" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="2" t="s">
         <v>68</v>
       </c>
       <c r="L22" s="2"/>
@@ -2965,31 +2882,31 @@
       <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="1:17" ht="16">
-      <c r="A23" s="20" t="s">
+      <c r="A23" t="s">
         <v>150</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" t="s">
         <v>160</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="13" t="s">
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="F23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="2" t="s">
         <v>72</v>
       </c>
       <c r="L23" s="2"/>
@@ -3000,31 +2917,31 @@
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:17" ht="16">
-      <c r="A24" s="21" t="s">
+      <c r="A24" t="s">
         <v>177</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="17" t="s">
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L24" s="2"/>
@@ -3035,31 +2952,31 @@
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17" ht="16">
-      <c r="A25" s="21" t="s">
+      <c r="A25" t="s">
         <v>178</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="17" t="s">
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="2" t="s">
         <v>78</v>
       </c>
       <c r="L25" s="2"/>
@@ -3070,28 +2987,28 @@
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17" ht="16">
-      <c r="A26" s="22" t="s">
+      <c r="A26" t="s">
         <v>323</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" t="s">
         <v>137</v>
       </c>
-      <c r="D26" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="8" t="s">
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="K26" s="29" t="s">
+      <c r="K26" s="20" t="s">
         <v>314</v>
       </c>
       <c r="L26" s="2"/>
@@ -3102,31 +3019,31 @@
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17" ht="16">
-      <c r="A27" s="22" t="s">
+      <c r="A27" t="s">
         <v>210</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" t="s">
         <v>163</v>
       </c>
-      <c r="D27" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="8" t="s">
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="29" t="s">
+      <c r="F27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="K27" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L27" s="2"/>
@@ -3137,31 +3054,31 @@
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="1:17" ht="16">
-      <c r="A28" s="22" t="s">
+      <c r="A28" t="s">
         <v>211</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" t="s">
         <v>164</v>
       </c>
-      <c r="D28" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="8" t="s">
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="10" t="s">
+      <c r="F28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="2" t="s">
         <v>82</v>
       </c>
       <c r="L28" s="2"/>
@@ -3172,31 +3089,31 @@
       <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:17" ht="16">
-      <c r="A29" s="22" t="s">
+      <c r="A29" t="s">
         <v>212</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" t="s">
         <v>166</v>
       </c>
-      <c r="D29" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="8" t="s">
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="11" t="s">
+      <c r="F29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="8" t="s">
         <v>104</v>
       </c>
       <c r="L29" s="2"/>
@@ -3207,31 +3124,31 @@
       <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="1:17" ht="16">
-      <c r="A30" s="22" t="s">
+      <c r="A30" t="s">
         <v>277</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" t="s">
         <v>319</v>
       </c>
-      <c r="D30" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="8" t="s">
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H30" t="s">
         <v>8</v>
       </c>
-      <c r="J30" s="19" t="s">
+      <c r="J30" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="K30" s="26" t="s">
+      <c r="K30" s="17" t="s">
         <v>271</v>
       </c>
       <c r="L30" s="2"/>
@@ -3242,31 +3159,31 @@
       <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="1:17" ht="16">
-      <c r="A31" s="20" t="s">
+      <c r="A31" t="s">
         <v>200</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" t="s">
         <v>137</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F31" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" s="19" t="s">
+      <c r="F31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="K31" s="26" t="s">
+      <c r="K31" s="17" t="s">
         <v>270</v>
       </c>
       <c r="L31" s="2"/>
@@ -3277,31 +3194,31 @@
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:17" ht="16">
-      <c r="A32" s="20" t="s">
+      <c r="A32" t="s">
         <v>201</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" t="s">
         <v>131</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" t="s">
         <v>137</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F32" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="23" t="s">
+      <c r="F32" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="K32" s="26" t="s">
+      <c r="K32" s="17" t="s">
         <v>269</v>
       </c>
       <c r="L32" s="2"/>
@@ -3312,31 +3229,31 @@
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="1:17" ht="16">
-      <c r="A33" s="21" t="s">
+      <c r="A33" t="s">
         <v>196</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" t="s">
         <v>318</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J33" s="25" t="s">
+      <c r="J33" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="K33" s="31" t="s">
+      <c r="K33" s="21" t="s">
         <v>338</v>
       </c>
       <c r="L33" s="2"/>
@@ -3347,33 +3264,31 @@
       <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="1:17" ht="16">
-      <c r="A34" s="21" t="s">
+      <c r="A34" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J34" s="30" t="s">
+      <c r="J34" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="K34" s="34" t="s">
-        <v>384</v>
-      </c>
+      <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -3382,28 +3297,28 @@
       <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="1:17" ht="16">
-      <c r="A35" s="21" t="s">
+      <c r="A35" t="s">
         <v>197</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="27" t="s">
+      <c r="J35" s="18" t="s">
         <v>297</v>
       </c>
       <c r="K35" s="2"/>
@@ -3415,150 +3330,147 @@
       <c r="Q35" s="2"/>
     </row>
     <row r="36" spans="1:17" ht="16">
-      <c r="A36" s="22" t="s">
+      <c r="A36" t="s">
         <v>295</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" t="s">
         <v>122</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="28" t="s">
+      <c r="G36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="19" t="s">
         <v>302</v>
       </c>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:17" ht="16">
-      <c r="A37" s="22" t="s">
+      <c r="A37" t="s">
         <v>303</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" t="s">
         <v>122</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" s="32" t="s">
+      <c r="F37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="21" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="16">
-      <c r="A38" s="22" t="s">
+    <row r="38" spans="1:17">
+      <c r="A38" t="s">
         <v>213</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" t="s">
         <v>163</v>
       </c>
-      <c r="D38" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="8" t="s">
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" s="33" t="s">
-        <v>383</v>
+      <c r="F38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="22" t="s">
+      <c r="A39" t="s">
         <v>214</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" t="s">
         <v>164</v>
       </c>
-      <c r="D39" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="8" t="s">
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="18" t="s">
+      <c r="F39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="22" t="s">
+      <c r="A40" t="s">
         <v>215</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" t="s">
         <v>166</v>
       </c>
-      <c r="D40" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="8" t="s">
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="18" t="s">
+      <c r="F40" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="22" t="s">
+      <c r="A41" t="s">
         <v>250</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" t="s">
         <v>248</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" t="s">
         <v>249</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="G41" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H41" t="s">
@@ -3566,160 +3478,160 @@
       </c>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="22" t="s">
+      <c r="A42" t="s">
         <v>278</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" t="s">
         <v>319</v>
       </c>
-      <c r="D42" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="8" t="s">
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="20" t="s">
+      <c r="A43" t="s">
         <v>189</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" t="s">
         <v>137</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F43" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="14" t="s">
+      <c r="F43" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="20" t="s">
+      <c r="A44" t="s">
         <v>190</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" t="s">
         <v>137</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" t="s">
         <v>95</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F44" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="14" t="s">
+      <c r="F44" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="20" t="s">
+      <c r="A45" t="s">
         <v>181</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" t="s">
         <v>137</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F45" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="14" t="s">
+      <c r="F45" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="20" t="s">
+      <c r="A46" t="s">
         <v>182</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F46" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="14" t="s">
+      <c r="F46" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="22" t="s">
+      <c r="A47" t="s">
         <v>304</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" t="s">
         <v>163</v>
       </c>
-      <c r="D47" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E47" s="8" t="s">
+      <c r="D47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F47" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="8" t="s">
+      <c r="F47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="20" t="s">
+      <c r="A48" t="s">
         <v>153</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" t="s">
         <v>160</v>
       </c>
-      <c r="D48" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E48" s="13" t="s">
+      <c r="D48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F48" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="14" t="s">
+      <c r="F48" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H48" t="s">
@@ -3727,160 +3639,160 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="21" t="s">
+      <c r="A49" t="s">
         <v>193</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E49" s="17" t="s">
+      <c r="D49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F49" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="18" t="s">
+      <c r="F49" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="21" t="s">
+      <c r="A50" t="s">
         <v>194</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E50" s="17" t="s">
+      <c r="D50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F50" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="18" t="s">
+      <c r="F50" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="22" t="s">
+      <c r="A51" t="s">
         <v>324</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" t="s">
         <v>137</v>
       </c>
-      <c r="D51" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E51" s="8" t="s">
+      <c r="D51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>88</v>
       </c>
       <c r="F51" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="22" t="s">
+      <c r="A52" t="s">
         <v>216</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" t="s">
         <v>87</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" t="s">
         <v>163</v>
       </c>
-      <c r="D52" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E52" s="8" t="s">
+      <c r="D52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F52" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="18" t="s">
+      <c r="F52" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="22" t="s">
+      <c r="A53" t="s">
         <v>217</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" t="s">
         <v>164</v>
       </c>
-      <c r="D53" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="8" t="s">
+      <c r="D53" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F53" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="18" t="s">
+      <c r="F53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="22" t="s">
+      <c r="A54" t="s">
         <v>218</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" t="s">
         <v>166</v>
       </c>
-      <c r="D54" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E54" s="8" t="s">
+      <c r="D54" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F54" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="18" t="s">
+      <c r="F54" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="22" t="s">
+      <c r="A55" t="s">
         <v>279</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" t="s">
         <v>319</v>
       </c>
-      <c r="D55" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E55" s="8" t="s">
+      <c r="D55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H55" t="s">
@@ -3888,23 +3800,22 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="21" t="s">
+      <c r="A56" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="17" t="s">
+      <c r="E56" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F56" s="17" t="s">
+      <c r="F56" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="18" t="s">
+      <c r="G56" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H56" t="s">
@@ -3912,114 +3823,114 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="22" t="s">
+      <c r="A57" t="s">
         <v>272</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" t="s">
         <v>321</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" t="s">
         <v>319</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" t="s">
         <v>267</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="7" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="20" t="s">
+      <c r="A58" t="s">
         <v>152</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E58" s="13" t="s">
+      <c r="D58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F58" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="14" t="s">
+      <c r="F58" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="21" t="s">
+      <c r="A59" t="s">
         <v>167</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B59" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" t="s">
         <v>51</v>
       </c>
-      <c r="D59" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E59" s="17" t="s">
+      <c r="D59" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F59" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="18" t="s">
+      <c r="F59" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="21" t="s">
+      <c r="A60" t="s">
         <v>168</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="B60" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" t="s">
         <v>40</v>
       </c>
-      <c r="D60" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E60" s="17" t="s">
+      <c r="D60" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F60" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="18" t="s">
+      <c r="F60" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="22" t="s">
+      <c r="A61" t="s">
         <v>219</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="B61" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" t="s">
         <v>163</v>
       </c>
-      <c r="D61" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E61" s="8" t="s">
+      <c r="D61" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F61" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="18" t="s">
+      <c r="F61" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H61" t="s">
@@ -4027,25 +3938,25 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="22" t="s">
+      <c r="A62" t="s">
         <v>220</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" t="s">
         <v>164</v>
       </c>
-      <c r="D62" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E62" s="8" t="s">
+      <c r="D62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F62" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="18" t="s">
+      <c r="F62" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H62" t="s">
@@ -4053,134 +3964,134 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="22" t="s">
+      <c r="A63" t="s">
         <v>221</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="B63" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" t="s">
         <v>166</v>
       </c>
-      <c r="D63" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E63" s="8" t="s">
+      <c r="D63" t="s">
+        <v>41</v>
+      </c>
+      <c r="E63" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F63" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="18" t="s">
+      <c r="F63" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="22" t="s">
+      <c r="A64" t="s">
         <v>280</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" t="s">
         <v>83</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" t="s">
         <v>319</v>
       </c>
-      <c r="D64" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E64" s="8" t="s">
+      <c r="D64" t="s">
+        <v>41</v>
+      </c>
+      <c r="E64" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="20" t="s">
+      <c r="A65" t="s">
         <v>169</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" t="s">
         <v>320</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" t="s">
         <v>137</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D65" t="s">
         <v>52</v>
       </c>
-      <c r="E65" s="13" t="s">
+      <c r="E65" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F65" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" s="14" t="s">
+      <c r="F65" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="20" t="s">
+      <c r="A66" t="s">
         <v>170</v>
       </c>
-      <c r="B66" s="20" t="s">
+      <c r="B66" t="s">
         <v>320</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" t="s">
         <v>137</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="D66" t="s">
         <v>95</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="E66" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F66" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" s="14" t="s">
+      <c r="F66" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="22" t="s">
+      <c r="A67" t="s">
         <v>273</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B67" t="s">
         <v>256</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" t="s">
         <v>319</v>
       </c>
-      <c r="D67" s="22" t="s">
+      <c r="D67" t="s">
         <v>268</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="21" t="s">
+      <c r="A68" t="s">
         <v>255</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" t="s">
         <v>56</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E68" s="8" t="s">
+      <c r="D68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G68" s="8" t="s">
+      <c r="G68" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H68" t="s">
@@ -4188,88 +4099,88 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="20" t="s">
+      <c r="A69" t="s">
         <v>147</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="B69" t="s">
         <v>56</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" t="s">
         <v>160</v>
       </c>
-      <c r="D69" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E69" s="13" t="s">
+      <c r="D69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F69" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" s="14" t="s">
+      <c r="F69" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="21" t="s">
+      <c r="A70" t="s">
         <v>57</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="B70" t="s">
         <v>56</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" t="s">
         <v>51</v>
       </c>
-      <c r="D70" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E70" s="17" t="s">
+      <c r="D70" t="s">
+        <v>41</v>
+      </c>
+      <c r="E70" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F70" s="17" t="s">
+      <c r="F70" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G70" s="18" t="s">
+      <c r="G70" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="21" t="s">
+      <c r="A71" t="s">
         <v>60</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" t="s">
         <v>56</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" t="s">
         <v>40</v>
       </c>
-      <c r="D71" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E71" s="17" t="s">
+      <c r="D71" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F71" s="17" t="s">
+      <c r="F71" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G71" s="18" t="s">
+      <c r="G71" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="22" t="s">
+      <c r="A72" t="s">
         <v>325</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="B72" t="s">
         <v>56</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" t="s">
         <v>137</v>
       </c>
-      <c r="D72" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E72" s="8" t="s">
+      <c r="D72" t="s">
+        <v>41</v>
+      </c>
+      <c r="E72" s="7" t="s">
         <v>58</v>
       </c>
       <c r="F72" t="s">
@@ -4277,91 +4188,91 @@
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="22" t="s">
+      <c r="A73" t="s">
         <v>222</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="B73" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" t="s">
         <v>163</v>
       </c>
-      <c r="D73" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E73" s="8" t="s">
+      <c r="D73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E73" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F73" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" s="18" t="s">
+      <c r="F73" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="22" t="s">
+      <c r="A74" t="s">
         <v>223</v>
       </c>
-      <c r="B74" s="21" t="s">
+      <c r="B74" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" t="s">
         <v>164</v>
       </c>
-      <c r="D74" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E74" s="8" t="s">
+      <c r="D74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F74" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" s="18" t="s">
+      <c r="F74" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="22" t="s">
+      <c r="A75" t="s">
         <v>224</v>
       </c>
-      <c r="B75" s="21" t="s">
+      <c r="B75" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" t="s">
         <v>166</v>
       </c>
-      <c r="D75" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E75" s="8" t="s">
+      <c r="D75" t="s">
+        <v>41</v>
+      </c>
+      <c r="E75" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F75" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" s="18" t="s">
+      <c r="F75" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="22" t="s">
+      <c r="A76" t="s">
         <v>288</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="B76" t="s">
         <v>56</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" t="s">
         <v>319</v>
       </c>
-      <c r="D76" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E76" s="8" t="s">
+      <c r="D76" t="s">
+        <v>41</v>
+      </c>
+      <c r="E76" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H76" t="s">
@@ -4369,25 +4280,25 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="20" t="s">
+      <c r="A77" t="s">
         <v>149</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="B77" t="s">
         <v>63</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" t="s">
         <v>160</v>
       </c>
-      <c r="D77" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E77" s="13" t="s">
+      <c r="D77" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F77" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" s="14" t="s">
+      <c r="F77" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H77" t="s">
@@ -4395,65 +4306,65 @@
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="21" t="s">
+      <c r="A78" t="s">
         <v>171</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="B78" t="s">
         <v>63</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C78" t="s">
         <v>51</v>
       </c>
-      <c r="D78" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E78" s="17" t="s">
+      <c r="D78" t="s">
+        <v>41</v>
+      </c>
+      <c r="E78" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F78" s="17" t="s">
+      <c r="F78" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G78" s="18" t="s">
+      <c r="G78" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="21" t="s">
+      <c r="A79" t="s">
         <v>172</v>
       </c>
-      <c r="B79" s="21" t="s">
+      <c r="B79" t="s">
         <v>63</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C79" t="s">
         <v>40</v>
       </c>
-      <c r="D79" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E79" s="17" t="s">
+      <c r="D79" t="s">
+        <v>41</v>
+      </c>
+      <c r="E79" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F79" s="17" t="s">
+      <c r="F79" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G79" s="18" t="s">
+      <c r="G79" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="22" t="s">
+      <c r="A80" t="s">
         <v>326</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="B80" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" t="s">
         <v>137</v>
       </c>
-      <c r="D80" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E80" s="8" t="s">
+      <c r="D80" t="s">
+        <v>41</v>
+      </c>
+      <c r="E80" s="7" t="s">
         <v>64</v>
       </c>
       <c r="F80" t="s">
@@ -4464,137 +4375,137 @@
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="22" t="s">
+      <c r="A81" t="s">
         <v>225</v>
       </c>
-      <c r="B81" s="21" t="s">
+      <c r="B81" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="C81" t="s">
         <v>163</v>
       </c>
-      <c r="D81" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E81" s="8" t="s">
+      <c r="D81" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F81" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" s="18" t="s">
+      <c r="F81" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="22" t="s">
+      <c r="A82" t="s">
         <v>226</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="B82" t="s">
         <v>63</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="C82" t="s">
         <v>164</v>
       </c>
-      <c r="D82" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E82" s="8" t="s">
+      <c r="D82" t="s">
+        <v>41</v>
+      </c>
+      <c r="E82" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F82" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" s="18" t="s">
+      <c r="F82" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="22" t="s">
+      <c r="A83" t="s">
         <v>227</v>
       </c>
-      <c r="B83" s="21" t="s">
+      <c r="B83" t="s">
         <v>63</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" t="s">
         <v>166</v>
       </c>
-      <c r="D83" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E83" s="8" t="s">
+      <c r="D83" t="s">
+        <v>41</v>
+      </c>
+      <c r="E83" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F83" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" s="18" t="s">
+      <c r="F83" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="22" t="s">
+      <c r="A84" t="s">
         <v>281</v>
       </c>
-      <c r="B84" s="21" t="s">
+      <c r="B84" t="s">
         <v>63</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" t="s">
         <v>319</v>
       </c>
-      <c r="D84" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E84" s="8" t="s">
+      <c r="D84" t="s">
+        <v>41</v>
+      </c>
+      <c r="E84" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="20" t="s">
+      <c r="A85" t="s">
         <v>155</v>
       </c>
-      <c r="B85" s="21" t="s">
+      <c r="B85" t="s">
         <v>85</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C85" t="s">
         <v>160</v>
       </c>
-      <c r="D85" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E85" s="13" t="s">
+      <c r="D85" t="s">
+        <v>41</v>
+      </c>
+      <c r="E85" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F85" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" s="14" t="s">
+      <c r="F85" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="21" t="s">
+      <c r="A86" t="s">
         <v>203</v>
       </c>
-      <c r="B86" s="21" t="s">
+      <c r="B86" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C86" t="s">
         <v>51</v>
       </c>
-      <c r="D86" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E86" s="17" t="s">
+      <c r="D86" t="s">
+        <v>41</v>
+      </c>
+      <c r="E86" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F86" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" s="18" t="s">
+      <c r="F86" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H86" t="s">
@@ -4602,94 +4513,94 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="21" t="s">
+      <c r="A87" t="s">
         <v>204</v>
       </c>
-      <c r="B87" s="21" t="s">
+      <c r="B87" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C87" t="s">
         <v>40</v>
       </c>
-      <c r="D87" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E87" s="17" t="s">
+      <c r="D87" t="s">
+        <v>41</v>
+      </c>
+      <c r="E87" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F87" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" s="18" t="s">
+      <c r="F87" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="22" t="s">
+      <c r="A88" t="s">
         <v>327</v>
       </c>
-      <c r="B88" s="21" t="s">
+      <c r="B88" t="s">
         <v>85</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="C88" t="s">
         <v>137</v>
       </c>
-      <c r="D88" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E88" s="8" t="s">
+      <c r="D88" t="s">
+        <v>41</v>
+      </c>
+      <c r="E88" s="7" t="s">
         <v>86</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
       </c>
-      <c r="G88" s="8" t="s">
+      <c r="G88" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="22" t="s">
+      <c r="A89" t="s">
         <v>228</v>
       </c>
-      <c r="B89" s="21" t="s">
+      <c r="B89" t="s">
         <v>85</v>
       </c>
-      <c r="C89" s="22" t="s">
+      <c r="C89" t="s">
         <v>163</v>
       </c>
-      <c r="D89" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E89" s="8" t="s">
+      <c r="D89" t="s">
+        <v>41</v>
+      </c>
+      <c r="E89" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F89" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" s="18" t="s">
+      <c r="F89" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="22" t="s">
+      <c r="A90" t="s">
         <v>229</v>
       </c>
-      <c r="B90" s="21" t="s">
+      <c r="B90" t="s">
         <v>85</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="C90" t="s">
         <v>164</v>
       </c>
-      <c r="D90" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E90" s="8" t="s">
+      <c r="D90" t="s">
+        <v>41</v>
+      </c>
+      <c r="E90" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F90" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" s="18" t="s">
+      <c r="F90" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H90" t="s">
@@ -4697,505 +4608,502 @@
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="22" t="s">
+      <c r="A91" t="s">
         <v>230</v>
       </c>
-      <c r="B91" s="21" t="s">
+      <c r="B91" t="s">
         <v>85</v>
       </c>
-      <c r="C91" s="22" t="s">
+      <c r="C91" t="s">
         <v>166</v>
       </c>
-      <c r="D91" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E91" s="8" t="s">
+      <c r="D91" t="s">
+        <v>41</v>
+      </c>
+      <c r="E91" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F91" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" s="18" t="s">
+      <c r="F91" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="22" t="s">
+      <c r="A92" t="s">
         <v>282</v>
       </c>
-      <c r="B92" s="21" t="s">
+      <c r="B92" t="s">
         <v>85</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="C92" t="s">
         <v>319</v>
       </c>
-      <c r="D92" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E92" s="8" t="s">
+      <c r="D92" t="s">
+        <v>41</v>
+      </c>
+      <c r="E92" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="20" t="s">
+      <c r="A93" t="s">
         <v>159</v>
       </c>
-      <c r="B93" s="21" t="s">
+      <c r="B93" t="s">
         <v>93</v>
       </c>
-      <c r="C93" s="21" t="s">
+      <c r="C93" t="s">
         <v>160</v>
       </c>
-      <c r="D93" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E93" s="13" t="s">
+      <c r="D93" t="s">
+        <v>41</v>
+      </c>
+      <c r="E93" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F93" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" s="14" t="s">
+      <c r="F93" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="21" t="s">
+      <c r="A94" t="s">
         <v>191</v>
       </c>
-      <c r="B94" s="21" t="s">
+      <c r="B94" t="s">
         <v>93</v>
       </c>
-      <c r="C94" s="21" t="s">
+      <c r="C94" t="s">
         <v>40</v>
       </c>
-      <c r="D94" s="21" t="s">
+      <c r="D94" t="s">
         <v>52</v>
       </c>
-      <c r="E94" s="17" t="s">
+      <c r="E94" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F94" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" s="18" t="s">
+      <c r="F94" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="21" t="s">
+      <c r="A95" t="s">
         <v>192</v>
       </c>
-      <c r="B95" s="21" t="s">
+      <c r="B95" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="C95" t="s">
         <v>40</v>
       </c>
-      <c r="D95" s="21" t="s">
+      <c r="D95" t="s">
         <v>95</v>
       </c>
-      <c r="E95" s="17" t="s">
+      <c r="E95" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F95" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" s="18" t="s">
+      <c r="F95" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="22" t="s">
+      <c r="A96" t="s">
         <v>328</v>
       </c>
-      <c r="B96" s="21" t="s">
+      <c r="B96" t="s">
         <v>93</v>
       </c>
-      <c r="C96" s="22" t="s">
+      <c r="C96" t="s">
         <v>137</v>
       </c>
-      <c r="D96" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E96" s="8" t="s">
+      <c r="D96" t="s">
+        <v>41</v>
+      </c>
+      <c r="E96" s="7" t="s">
         <v>94</v>
       </c>
       <c r="F96" t="s">
         <v>14</v>
       </c>
-      <c r="G96" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="22" t="s">
+      <c r="G96" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
         <v>305</v>
       </c>
-      <c r="B97" s="22" t="s">
+      <c r="B97" t="s">
         <v>93</v>
       </c>
-      <c r="C97" s="22" t="s">
+      <c r="C97" t="s">
         <v>163</v>
       </c>
-      <c r="D97" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E97" s="8" t="s">
+      <c r="D97" t="s">
+        <v>41</v>
+      </c>
+      <c r="E97" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F97" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" s="8" t="s">
+      <c r="F97" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H97" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="22" t="s">
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
         <v>283</v>
       </c>
-      <c r="B98" s="21" t="s">
+      <c r="B98" t="s">
         <v>93</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C98" t="s">
         <v>319</v>
       </c>
-      <c r="D98" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E98" s="8" t="s">
+      <c r="D98" t="s">
+        <v>41</v>
+      </c>
+      <c r="E98" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H98" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="20" t="s">
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
         <v>157</v>
       </c>
-      <c r="B99" s="21" t="s">
+      <c r="B99" t="s">
         <v>75</v>
       </c>
-      <c r="C99" s="21" t="s">
+      <c r="C99" t="s">
         <v>160</v>
       </c>
-      <c r="D99" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E99" s="13" t="s">
+      <c r="D99" t="s">
+        <v>41</v>
+      </c>
+      <c r="E99" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F99" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" s="14" t="s">
+      <c r="F99" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H99" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="21" t="s">
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
         <v>179</v>
       </c>
-      <c r="B100" s="21" t="s">
+      <c r="B100" t="s">
         <v>75</v>
       </c>
-      <c r="C100" s="21" t="s">
+      <c r="C100" t="s">
         <v>51</v>
       </c>
-      <c r="D100" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E100" s="17" t="s">
+      <c r="D100" t="s">
+        <v>41</v>
+      </c>
+      <c r="E100" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F100" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="21" t="s">
+      <c r="F100" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
         <v>180</v>
       </c>
-      <c r="B101" s="21" t="s">
+      <c r="B101" t="s">
         <v>75</v>
       </c>
-      <c r="C101" s="21" t="s">
+      <c r="C101" t="s">
         <v>40</v>
       </c>
-      <c r="D101" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E101" s="17" t="s">
+      <c r="D101" t="s">
+        <v>41</v>
+      </c>
+      <c r="E101" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F101" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="22" t="s">
+      <c r="F101" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
         <v>329</v>
       </c>
-      <c r="B102" s="21" t="s">
+      <c r="B102" t="s">
         <v>75</v>
       </c>
-      <c r="C102" s="22" t="s">
+      <c r="C102" t="s">
         <v>137</v>
       </c>
-      <c r="D102" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E102" s="8" t="s">
+      <c r="D102" t="s">
+        <v>41</v>
+      </c>
+      <c r="E102" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F102" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="22" t="s">
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
         <v>231</v>
       </c>
-      <c r="B103" s="21" t="s">
+      <c r="B103" t="s">
         <v>75</v>
       </c>
-      <c r="C103" s="22" t="s">
+      <c r="C103" t="s">
         <v>163</v>
       </c>
-      <c r="D103" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E103" s="8" t="s">
+      <c r="D103" t="s">
+        <v>41</v>
+      </c>
+      <c r="E103" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F103" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" s="18" t="s">
+      <c r="F103" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H103" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="22" t="s">
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
         <v>232</v>
       </c>
-      <c r="B104" s="21" t="s">
+      <c r="B104" t="s">
         <v>75</v>
       </c>
-      <c r="C104" s="22" t="s">
+      <c r="C104" t="s">
         <v>164</v>
       </c>
-      <c r="D104" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E104" s="8" t="s">
+      <c r="D104" t="s">
+        <v>41</v>
+      </c>
+      <c r="E104" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F104" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="22" t="s">
+      <c r="F104" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
         <v>233</v>
       </c>
-      <c r="B105" s="21" t="s">
+      <c r="B105" t="s">
         <v>75</v>
       </c>
-      <c r="C105" s="22" t="s">
+      <c r="C105" t="s">
         <v>166</v>
       </c>
-      <c r="D105" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E105" s="8" t="s">
+      <c r="D105" t="s">
+        <v>41</v>
+      </c>
+      <c r="E105" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F105" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" s="24" customFormat="1">
-      <c r="A106" s="22" t="s">
+      <c r="F105" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
         <v>290</v>
       </c>
-      <c r="B106" s="21" t="s">
+      <c r="B106" t="s">
         <v>75</v>
       </c>
-      <c r="C106" s="21" t="s">
+      <c r="C106" t="s">
         <v>319</v>
       </c>
-      <c r="D106" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E106" s="8" t="s">
+      <c r="D106" t="s">
+        <v>41</v>
+      </c>
+      <c r="E106" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F106" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" s="8"/>
-      <c r="I106"/>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="21" t="s">
+      <c r="F106" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
         <v>23</v>
       </c>
-      <c r="B107" s="21" t="s">
+      <c r="B107" t="s">
         <v>22</v>
       </c>
-      <c r="C107" s="21" t="s">
+      <c r="C107" t="s">
         <v>11</v>
       </c>
-      <c r="D107" s="21" t="s">
+      <c r="D107" t="s">
         <v>24</v>
       </c>
-      <c r="E107" s="17" t="s">
+      <c r="E107" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F107" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="21" t="s">
+      <c r="F107" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
         <v>106</v>
       </c>
-      <c r="B108" s="21" t="s">
+      <c r="B108" t="s">
         <v>22</v>
       </c>
-      <c r="C108" s="21" t="s">
+      <c r="C108" t="s">
         <v>317</v>
       </c>
-      <c r="D108" s="21"/>
-      <c r="E108" s="17" t="s">
+      <c r="E108" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F108" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="22" t="s">
+      <c r="F108" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
         <v>296</v>
       </c>
-      <c r="B109" s="21" t="s">
+      <c r="B109" t="s">
         <v>22</v>
       </c>
-      <c r="C109" s="21" t="s">
+      <c r="C109" t="s">
         <v>122</v>
       </c>
-      <c r="D109" s="21" t="s">
+      <c r="D109" t="s">
         <v>44</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="E109" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F109" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="22" t="s">
+      <c r="F109" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" t="s">
         <v>284</v>
       </c>
-      <c r="B110" s="21" t="s">
+      <c r="B110" t="s">
         <v>22</v>
       </c>
-      <c r="C110" s="21" t="s">
+      <c r="C110" t="s">
         <v>319</v>
       </c>
-      <c r="D110" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E110" s="8" t="s">
+      <c r="D110" t="s">
+        <v>41</v>
+      </c>
+      <c r="E110" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F110" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="20" t="s">
+      <c r="F110" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
         <v>187</v>
       </c>
-      <c r="B111" s="20" t="s">
+      <c r="B111" t="s">
         <v>134</v>
       </c>
-      <c r="C111" s="20" t="s">
+      <c r="C111" t="s">
         <v>137</v>
       </c>
-      <c r="D111" s="20" t="s">
+      <c r="D111" t="s">
         <v>52</v>
       </c>
-      <c r="E111" s="13" t="s">
+      <c r="E111" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F111" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="20" t="s">
+      <c r="F111" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" t="s">
         <v>188</v>
       </c>
-      <c r="B112" s="20" t="s">
+      <c r="B112" t="s">
         <v>134</v>
       </c>
-      <c r="C112" s="20" t="s">
+      <c r="C112" t="s">
         <v>137</v>
       </c>
-      <c r="D112" s="20" t="s">
+      <c r="D112" t="s">
         <v>95</v>
       </c>
-      <c r="E112" s="13" t="s">
+      <c r="E112" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F112" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" s="14" t="s">
+      <c r="F112" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H112" t="s">
@@ -5203,94 +5111,94 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="22" t="s">
+      <c r="A113" t="s">
         <v>306</v>
       </c>
-      <c r="B113" s="22" t="s">
+      <c r="B113" t="s">
         <v>134</v>
       </c>
-      <c r="C113" s="22" t="s">
+      <c r="C113" t="s">
         <v>163</v>
       </c>
-      <c r="D113" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E113" s="8" t="s">
+      <c r="D113" t="s">
+        <v>41</v>
+      </c>
+      <c r="E113" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F113" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" s="8" t="s">
+      <c r="F113" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="22" t="s">
+      <c r="A114" t="s">
         <v>309</v>
       </c>
-      <c r="B114" s="22" t="s">
+      <c r="B114" t="s">
         <v>100</v>
       </c>
-      <c r="C114" s="22" t="s">
+      <c r="C114" t="s">
         <v>122</v>
       </c>
-      <c r="D114" s="22" t="s">
+      <c r="D114" t="s">
         <v>17</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E114" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F114" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" s="8" t="s">
+      <c r="F114" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="17">
-      <c r="A115" s="21" t="s">
+      <c r="A115" t="s">
         <v>10</v>
       </c>
-      <c r="B115" s="21" t="s">
+      <c r="B115" t="s">
         <v>100</v>
       </c>
-      <c r="C115" s="21" t="s">
+      <c r="C115" t="s">
         <v>11</v>
       </c>
-      <c r="D115" s="21" t="s">
+      <c r="D115" t="s">
         <v>12</v>
       </c>
-      <c r="E115" s="17" t="s">
+      <c r="E115" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F115" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" s="18" t="s">
+      <c r="F115" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="17">
-      <c r="A116" s="21" t="s">
+      <c r="A116" t="s">
         <v>16</v>
       </c>
-      <c r="B116" s="21" t="s">
+      <c r="B116" t="s">
         <v>100</v>
       </c>
-      <c r="C116" s="21" t="s">
+      <c r="C116" t="s">
         <v>11</v>
       </c>
-      <c r="D116" s="21" t="s">
+      <c r="D116" t="s">
         <v>17</v>
       </c>
-      <c r="E116" s="17" t="s">
+      <c r="E116" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F116" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" s="18" t="s">
+      <c r="F116" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H116" t="s">
@@ -5298,46 +5206,46 @@
       </c>
     </row>
     <row r="117" spans="1:9" ht="17">
-      <c r="A117" s="21" t="s">
+      <c r="A117" t="s">
         <v>19</v>
       </c>
-      <c r="B117" s="21" t="s">
+      <c r="B117" t="s">
         <v>100</v>
       </c>
-      <c r="C117" s="21" t="s">
+      <c r="C117" t="s">
         <v>11</v>
       </c>
-      <c r="D117" s="21" t="s">
+      <c r="D117" t="s">
         <v>20</v>
       </c>
-      <c r="E117" s="17" t="s">
+      <c r="E117" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F117" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" s="18" t="s">
+      <c r="F117" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="20" t="s">
+      <c r="A118" t="s">
         <v>125</v>
       </c>
-      <c r="B118" s="20" t="s">
+      <c r="B118" t="s">
         <v>28</v>
       </c>
-      <c r="C118" s="20" t="s">
+      <c r="C118" t="s">
         <v>123</v>
       </c>
-      <c r="D118" s="20" t="s">
+      <c r="D118" t="s">
         <v>30</v>
       </c>
-      <c r="E118" s="12" t="s">
+      <c r="E118" t="s">
         <v>111</v>
       </c>
-      <c r="F118" s="12"/>
-      <c r="G118" s="13" t="s">
+      <c r="F118"/>
+      <c r="G118" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H118" t="s">
@@ -5345,87 +5253,87 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="21" t="s">
+      <c r="A119" t="s">
         <v>105</v>
       </c>
-      <c r="B119" s="21" t="s">
+      <c r="B119" t="s">
         <v>100</v>
       </c>
-      <c r="C119" s="21" t="s">
+      <c r="C119" t="s">
         <v>102</v>
       </c>
-      <c r="D119" s="21" t="s">
+      <c r="D119" t="s">
         <v>101</v>
       </c>
-      <c r="E119" s="17" t="s">
+      <c r="E119" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F119" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" s="18" t="s">
+      <c r="F119" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="20" t="s">
+      <c r="A120" t="s">
         <v>124</v>
       </c>
-      <c r="B120" s="20" t="s">
+      <c r="B120" t="s">
         <v>100</v>
       </c>
-      <c r="C120" s="20" t="s">
+      <c r="C120" t="s">
         <v>122</v>
       </c>
-      <c r="D120" s="20" t="s">
+      <c r="D120" t="s">
         <v>101</v>
       </c>
-      <c r="E120" s="12" t="s">
+      <c r="E120" t="s">
         <v>113</v>
       </c>
-      <c r="F120" s="12"/>
-      <c r="G120" s="13" t="s">
+      <c r="F120"/>
+      <c r="G120" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="22" t="s">
+      <c r="A121" t="s">
         <v>285</v>
       </c>
-      <c r="B121" s="21" t="s">
+      <c r="B121" t="s">
         <v>100</v>
       </c>
-      <c r="C121" s="21" t="s">
+      <c r="C121" t="s">
         <v>319</v>
       </c>
-      <c r="D121" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E121" s="8" t="s">
+      <c r="D121" t="s">
+        <v>41</v>
+      </c>
+      <c r="E121" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F121" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H121" s="8" t="s">
+      <c r="F121" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I121" s="8"/>
+      <c r="I121" s="7"/>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="22" t="s">
+      <c r="A122" t="s">
         <v>330</v>
       </c>
-      <c r="B122" s="21" t="s">
+      <c r="B122" t="s">
         <v>49</v>
       </c>
-      <c r="C122" s="22" t="s">
+      <c r="C122" t="s">
         <v>137</v>
       </c>
-      <c r="D122" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E122" s="8" t="s">
+      <c r="D122" t="s">
+        <v>41</v>
+      </c>
+      <c r="E122" s="7" t="s">
         <v>53</v>
       </c>
       <c r="F122" t="s">
@@ -5433,264 +5341,264 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="22" t="s">
+      <c r="A123" t="s">
         <v>234</v>
       </c>
-      <c r="B123" s="21" t="s">
+      <c r="B123" t="s">
         <v>49</v>
       </c>
-      <c r="C123" s="22" t="s">
+      <c r="C123" t="s">
         <v>163</v>
       </c>
-      <c r="D123" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E123" s="8" t="s">
+      <c r="D123" t="s">
+        <v>41</v>
+      </c>
+      <c r="E123" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F123" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" s="18" t="s">
+      <c r="F123" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="22" t="s">
+      <c r="A124" t="s">
         <v>235</v>
       </c>
-      <c r="B124" s="21" t="s">
+      <c r="B124" t="s">
         <v>49</v>
       </c>
-      <c r="C124" s="22" t="s">
+      <c r="C124" t="s">
         <v>164</v>
       </c>
-      <c r="D124" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E124" s="8" t="s">
+      <c r="D124" t="s">
+        <v>41</v>
+      </c>
+      <c r="E124" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F124" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" s="18" t="s">
+      <c r="F124" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="22" t="s">
+      <c r="A125" t="s">
         <v>236</v>
       </c>
-      <c r="B125" s="21" t="s">
+      <c r="B125" t="s">
         <v>49</v>
       </c>
-      <c r="C125" s="22" t="s">
+      <c r="C125" t="s">
         <v>166</v>
       </c>
-      <c r="D125" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E125" s="8" t="s">
+      <c r="D125" t="s">
+        <v>41</v>
+      </c>
+      <c r="E125" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F125" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" s="18" t="s">
+      <c r="F125" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="22" t="s">
+      <c r="A126" t="s">
         <v>287</v>
       </c>
-      <c r="B126" s="21" t="s">
+      <c r="B126" t="s">
         <v>49</v>
       </c>
-      <c r="C126" s="21" t="s">
+      <c r="C126" t="s">
         <v>319</v>
       </c>
-      <c r="D126" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E126" s="8" t="s">
+      <c r="D126" t="s">
+        <v>41</v>
+      </c>
+      <c r="E126" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F126" s="8" t="s">
+      <c r="F126" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="20" t="s">
+      <c r="A127" t="s">
         <v>185</v>
       </c>
-      <c r="B127" s="20" t="s">
+      <c r="B127" t="s">
         <v>135</v>
       </c>
-      <c r="C127" s="20" t="s">
+      <c r="C127" t="s">
         <v>137</v>
       </c>
-      <c r="D127" s="20" t="s">
+      <c r="D127" t="s">
         <v>52</v>
       </c>
-      <c r="E127" s="13" t="s">
+      <c r="E127" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F127" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" s="14" t="s">
+      <c r="F127" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="20" t="s">
+      <c r="A128" t="s">
         <v>186</v>
       </c>
-      <c r="B128" s="20" t="s">
+      <c r="B128" t="s">
         <v>135</v>
       </c>
-      <c r="C128" s="20" t="s">
+      <c r="C128" t="s">
         <v>137</v>
       </c>
-      <c r="D128" s="20" t="s">
+      <c r="D128" t="s">
         <v>95</v>
       </c>
-      <c r="E128" s="13" t="s">
+      <c r="E128" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F128" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" s="14" t="s">
+      <c r="F128" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="22" t="s">
+      <c r="A129" t="s">
         <v>307</v>
       </c>
-      <c r="B129" s="22" t="s">
+      <c r="B129" t="s">
         <v>135</v>
       </c>
-      <c r="C129" s="22" t="s">
+      <c r="C129" t="s">
         <v>163</v>
       </c>
-      <c r="D129" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E129" s="8" t="s">
+      <c r="D129" t="s">
+        <v>41</v>
+      </c>
+      <c r="E129" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F129" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" s="8" t="s">
+      <c r="F129" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="22" t="s">
+      <c r="A130" t="s">
         <v>274</v>
       </c>
-      <c r="B130" s="21" t="s">
+      <c r="B130" t="s">
         <v>257</v>
       </c>
-      <c r="C130" s="21" t="s">
+      <c r="C130" t="s">
         <v>319</v>
       </c>
-      <c r="D130" s="22" t="s">
+      <c r="D130" t="s">
         <v>17</v>
       </c>
-      <c r="E130" s="8" t="s">
+      <c r="E130" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F130" s="8" t="s">
+      <c r="F130" s="7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17">
-      <c r="A131" s="21" t="s">
+      <c r="A131" t="s">
         <v>43</v>
       </c>
-      <c r="B131" s="21" t="s">
+      <c r="B131" t="s">
         <v>42</v>
       </c>
-      <c r="C131" s="21" t="s">
+      <c r="C131" t="s">
         <v>11</v>
       </c>
-      <c r="D131" s="21" t="s">
+      <c r="D131" t="s">
         <v>44</v>
       </c>
-      <c r="E131" s="17" t="s">
+      <c r="E131" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F131" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" s="18" t="s">
+      <c r="F131" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="20" t="s">
+      <c r="A132" t="s">
         <v>151</v>
       </c>
-      <c r="B132" s="21" t="s">
+      <c r="B132" t="s">
         <v>38</v>
       </c>
-      <c r="C132" s="21" t="s">
+      <c r="C132" t="s">
         <v>160</v>
       </c>
-      <c r="D132" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E132" s="13" t="s">
+      <c r="D132" t="s">
+        <v>41</v>
+      </c>
+      <c r="E132" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F132" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" s="14" t="s">
+      <c r="F132" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="20" t="s">
+      <c r="A133" t="s">
         <v>126</v>
       </c>
-      <c r="B133" s="20" t="s">
+      <c r="B133" t="s">
         <v>38</v>
       </c>
-      <c r="C133" s="20" t="s">
+      <c r="C133" t="s">
         <v>40</v>
       </c>
-      <c r="D133" s="20" t="s">
+      <c r="D133" t="s">
         <v>35</v>
       </c>
-      <c r="E133" s="12" t="s">
+      <c r="E133" t="s">
         <v>33</v>
       </c>
-      <c r="F133" s="12"/>
-      <c r="G133" s="13" t="s">
+      <c r="F133"/>
+      <c r="G133" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="22" t="s">
+      <c r="A134" t="s">
         <v>331</v>
       </c>
-      <c r="B134" s="21" t="s">
+      <c r="B134" t="s">
         <v>38</v>
       </c>
-      <c r="C134" s="22" t="s">
+      <c r="C134" t="s">
         <v>137</v>
       </c>
-      <c r="D134" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E134" s="8" t="s">
+      <c r="D134" t="s">
+        <v>41</v>
+      </c>
+      <c r="E134" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F134" t="s">
@@ -5698,1365 +5606,1165 @@
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="22" t="s">
+      <c r="A135" t="s">
         <v>237</v>
       </c>
-      <c r="B135" s="21" t="s">
+      <c r="B135" t="s">
         <v>38</v>
       </c>
-      <c r="C135" s="22" t="s">
+      <c r="C135" t="s">
         <v>163</v>
       </c>
-      <c r="D135" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E135" s="8" t="s">
+      <c r="D135" t="s">
+        <v>41</v>
+      </c>
+      <c r="E135" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F135" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" s="18" t="s">
+      <c r="F135" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="22" t="s">
+      <c r="A136" t="s">
         <v>238</v>
       </c>
-      <c r="B136" s="21" t="s">
+      <c r="B136" t="s">
         <v>38</v>
       </c>
-      <c r="C136" s="22" t="s">
+      <c r="C136" t="s">
         <v>164</v>
       </c>
-      <c r="D136" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E136" s="8" t="s">
+      <c r="D136" t="s">
+        <v>41</v>
+      </c>
+      <c r="E136" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F136" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" s="18" t="s">
+      <c r="F136" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="22" t="s">
+      <c r="A137" t="s">
         <v>239</v>
       </c>
-      <c r="B137" s="21" t="s">
+      <c r="B137" t="s">
         <v>38</v>
       </c>
-      <c r="C137" s="22" t="s">
+      <c r="C137" t="s">
         <v>166</v>
       </c>
-      <c r="D137" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E137" s="8" t="s">
+      <c r="D137" t="s">
+        <v>41</v>
+      </c>
+      <c r="E137" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F137" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G137" s="18" t="s">
+      <c r="F137" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="22" t="s">
+      <c r="A138" t="s">
         <v>292</v>
       </c>
-      <c r="B138" s="21" t="s">
+      <c r="B138" t="s">
         <v>38</v>
       </c>
-      <c r="C138" s="21" t="s">
+      <c r="C138" t="s">
         <v>319</v>
       </c>
-      <c r="D138" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E138" s="8" t="s">
+      <c r="D138" t="s">
+        <v>41</v>
+      </c>
+      <c r="E138" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F138" s="8" t="s">
+      <c r="F138" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="21" t="s">
+      <c r="A139" t="s">
         <v>173</v>
       </c>
-      <c r="B139" s="21" t="s">
+      <c r="B139" t="s">
         <v>98</v>
       </c>
-      <c r="C139" s="21" t="s">
+      <c r="C139" t="s">
         <v>40</v>
       </c>
-      <c r="D139" s="21" t="s">
+      <c r="D139" t="s">
         <v>52</v>
       </c>
-      <c r="E139" s="17" t="s">
+      <c r="E139" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F139" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G139" s="18" t="s">
+      <c r="F139" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G139" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="21" t="s">
+      <c r="A140" t="s">
         <v>174</v>
       </c>
-      <c r="B140" s="21" t="s">
+      <c r="B140" t="s">
         <v>98</v>
       </c>
-      <c r="C140" s="21" t="s">
+      <c r="C140" t="s">
         <v>40</v>
       </c>
-      <c r="D140" s="21" t="s">
+      <c r="D140" t="s">
         <v>95</v>
       </c>
-      <c r="E140" s="17" t="s">
+      <c r="E140" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F140" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" s="18" t="s">
+      <c r="F140" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G140" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="22" t="s">
+      <c r="A141" t="s">
         <v>308</v>
       </c>
-      <c r="B141" s="22" t="s">
+      <c r="B141" t="s">
         <v>98</v>
       </c>
-      <c r="C141" s="22" t="s">
+      <c r="C141" t="s">
         <v>163</v>
       </c>
-      <c r="D141" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E141" s="8" t="s">
+      <c r="D141" t="s">
+        <v>41</v>
+      </c>
+      <c r="E141" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F141" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" s="8" t="s">
+      <c r="F141" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G141" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="22" t="s">
+      <c r="A142" t="s">
         <v>289</v>
       </c>
-      <c r="B142" s="21" t="s">
+      <c r="B142" t="s">
         <v>258</v>
       </c>
-      <c r="C142" s="21" t="s">
+      <c r="C142" t="s">
         <v>319</v>
       </c>
-      <c r="D142" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E142" s="8" t="s">
+      <c r="D142" t="s">
+        <v>41</v>
+      </c>
+      <c r="E142" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F142" s="8" t="s">
+      <c r="F142" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="21" t="s">
+      <c r="A143" t="s">
         <v>240</v>
       </c>
-      <c r="B143" s="21" t="s">
+      <c r="B143" t="s">
         <v>34</v>
       </c>
-      <c r="C143" s="21" t="s">
+      <c r="C143" t="s">
         <v>11</v>
       </c>
-      <c r="D143" s="21" t="s">
+      <c r="D143" t="s">
         <v>35</v>
       </c>
-      <c r="E143" s="17" t="s">
+      <c r="E143" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F143" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" s="18" t="s">
+      <c r="F143" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G143" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="22" t="s">
+      <c r="A144" t="s">
         <v>254</v>
       </c>
-      <c r="B144" s="21" t="s">
+      <c r="B144" t="s">
         <v>34</v>
       </c>
-      <c r="C144" s="21" t="s">
+      <c r="C144" t="s">
         <v>11</v>
       </c>
-      <c r="D144" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E144" s="8" t="s">
+      <c r="D144" t="s">
+        <v>41</v>
+      </c>
+      <c r="E144" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F144" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" s="8" t="s">
+      <c r="F144" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G144" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="20" t="s">
+      <c r="A145" t="s">
         <v>183</v>
       </c>
-      <c r="B145" s="20" t="s">
+      <c r="B145" t="s">
         <v>136</v>
       </c>
-      <c r="C145" s="20" t="s">
+      <c r="C145" t="s">
         <v>137</v>
       </c>
-      <c r="D145" s="20" t="s">
+      <c r="D145" t="s">
         <v>52</v>
       </c>
-      <c r="E145" s="13" t="s">
+      <c r="E145" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F145" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" s="14" t="s">
+      <c r="F145" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G145" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="20" t="s">
+      <c r="A146" t="s">
         <v>184</v>
       </c>
-      <c r="B146" s="20" t="s">
+      <c r="B146" t="s">
         <v>136</v>
       </c>
-      <c r="C146" s="20" t="s">
+      <c r="C146" t="s">
         <v>137</v>
       </c>
-      <c r="D146" s="20" t="s">
+      <c r="D146" t="s">
         <v>95</v>
       </c>
-      <c r="E146" s="13" t="s">
+      <c r="E146" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F146" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H146" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I146" s="8"/>
+      <c r="F146" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I146" s="7"/>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="21" t="s">
+      <c r="A147" t="s">
         <v>116</v>
       </c>
-      <c r="B147" s="21" t="s">
+      <c r="B147" t="s">
         <v>117</v>
       </c>
-      <c r="C147" s="21" t="s">
+      <c r="C147" t="s">
         <v>108</v>
       </c>
-      <c r="D147" s="21" t="s">
+      <c r="D147" t="s">
         <v>337</v>
       </c>
-      <c r="E147" s="17" t="s">
+      <c r="E147" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F147" s="17" t="s">
+      <c r="F147" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G147" s="18" t="s">
+      <c r="G147" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="21" t="s">
+      <c r="A148" t="s">
         <v>29</v>
       </c>
-      <c r="B148" s="21" t="s">
+      <c r="B148" t="s">
         <v>28</v>
       </c>
-      <c r="C148" s="21" t="s">
+      <c r="C148" t="s">
         <v>11</v>
       </c>
-      <c r="D148" s="21" t="s">
+      <c r="D148" t="s">
         <v>30</v>
       </c>
-      <c r="E148" s="17" t="s">
+      <c r="E148" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F148" s="17" t="s">
+      <c r="F148" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G148" s="18" t="s">
+      <c r="G148" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="21" t="s">
+      <c r="A149" t="s">
         <v>119</v>
       </c>
-      <c r="B149" s="21" t="s">
+      <c r="B149" t="s">
         <v>109</v>
       </c>
-      <c r="C149" s="21" t="s">
+      <c r="C149" t="s">
         <v>120</v>
       </c>
-      <c r="D149" s="21" t="s">
+      <c r="D149" t="s">
         <v>120</v>
       </c>
-      <c r="E149" s="17" t="s">
+      <c r="E149" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F149" s="17" t="s">
+      <c r="F149" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G149" s="18" t="s">
+      <c r="G149" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H149" s="8" t="s">
+      <c r="H149" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I149" s="8"/>
+      <c r="I149" s="7"/>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="21" t="s">
+      <c r="A150" t="s">
         <v>107</v>
       </c>
-      <c r="B150" s="21" t="s">
+      <c r="B150" t="s">
         <v>109</v>
       </c>
-      <c r="C150" s="21" t="s">
+      <c r="C150" t="s">
         <v>108</v>
       </c>
-      <c r="D150" s="21" t="s">
+      <c r="D150" t="s">
         <v>26</v>
       </c>
-      <c r="E150" s="17" t="s">
+      <c r="E150" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F150" s="17" t="s">
+      <c r="F150" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G150" s="18" t="s">
+      <c r="G150" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="22" t="s">
+      <c r="A151" t="s">
         <v>310</v>
       </c>
-      <c r="B151" s="22" t="s">
+      <c r="B151" t="s">
         <v>260</v>
       </c>
-      <c r="C151" s="22" t="s">
+      <c r="C151" t="s">
         <v>108</v>
       </c>
-      <c r="D151" s="22" t="s">
+      <c r="D151" t="s">
         <v>267</v>
       </c>
-      <c r="E151" s="8" t="s">
+      <c r="E151" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F151" s="8" t="s">
+      <c r="F151" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G151" s="8" t="s">
+      <c r="G151" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="22" t="s">
+      <c r="A152" t="s">
         <v>286</v>
       </c>
-      <c r="B152" s="21" t="s">
+      <c r="B152" t="s">
         <v>260</v>
       </c>
-      <c r="C152" s="21" t="s">
+      <c r="C152" t="s">
         <v>319</v>
       </c>
-      <c r="D152" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E152" s="8" t="s">
+      <c r="D152" t="s">
+        <v>41</v>
+      </c>
+      <c r="E152" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F152" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" s="8" t="s">
+      <c r="F152" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G152" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="22" t="s">
+      <c r="A153" t="s">
         <v>298</v>
       </c>
-      <c r="B153" s="21" t="s">
+      <c r="B153" t="s">
         <v>260</v>
       </c>
-      <c r="C153" s="21" t="s">
+      <c r="C153" t="s">
         <v>123</v>
       </c>
-      <c r="D153" s="21" t="s">
+      <c r="D153" t="s">
         <v>44</v>
       </c>
-      <c r="E153" s="8" t="s">
+      <c r="E153" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F153" s="8" t="s">
+      <c r="F153" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G153" s="8" t="s">
+      <c r="G153" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="20" t="s">
+      <c r="A154" t="s">
         <v>148</v>
       </c>
-      <c r="B154" s="21" t="s">
+      <c r="B154" t="s">
         <v>49</v>
       </c>
-      <c r="C154" s="21" t="s">
+      <c r="C154" t="s">
         <v>160</v>
       </c>
-      <c r="D154" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E154" s="13" t="s">
+      <c r="D154" t="s">
+        <v>41</v>
+      </c>
+      <c r="E154" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F154" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G154" s="14" t="s">
+      <c r="F154" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G154" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="21" t="s">
+      <c r="A155" t="s">
         <v>50</v>
       </c>
-      <c r="B155" s="21" t="s">
+      <c r="B155" t="s">
         <v>49</v>
       </c>
-      <c r="C155" s="21" t="s">
+      <c r="C155" t="s">
         <v>51</v>
       </c>
-      <c r="D155" s="21" t="s">
+      <c r="D155" t="s">
         <v>52</v>
       </c>
-      <c r="E155" s="17" t="s">
+      <c r="E155" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F155" s="17" t="s">
+      <c r="F155" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G155" s="18" t="s">
+      <c r="G155" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="21" t="s">
+      <c r="A156" t="s">
         <v>54</v>
       </c>
-      <c r="B156" s="21" t="s">
+      <c r="B156" t="s">
         <v>49</v>
       </c>
-      <c r="C156" s="21" t="s">
+      <c r="C156" t="s">
         <v>40</v>
       </c>
-      <c r="D156" s="21" t="s">
+      <c r="D156" t="s">
         <v>52</v>
       </c>
-      <c r="E156" s="17" t="s">
+      <c r="E156" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F156" s="17" t="s">
+      <c r="F156" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G156" s="18" t="s">
+      <c r="G156" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="21" t="s">
+      <c r="A157" t="s">
         <v>32</v>
       </c>
-      <c r="B157" s="21" t="s">
+      <c r="B157" t="s">
         <v>31</v>
       </c>
-      <c r="C157" s="21" t="s">
+      <c r="C157" t="s">
         <v>108</v>
       </c>
-      <c r="D157" s="21"/>
-      <c r="E157" s="17" t="s">
+      <c r="E157" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F157" s="17" t="s">
+      <c r="F157" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G157" s="18" t="s">
+      <c r="G157" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="21" t="s">
+      <c r="A158" t="s">
         <v>39</v>
       </c>
-      <c r="B158" s="21" t="s">
+      <c r="B158" t="s">
         <v>38</v>
       </c>
-      <c r="C158" s="21" t="s">
+      <c r="C158" t="s">
         <v>40</v>
       </c>
-      <c r="D158" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E158" s="17" t="s">
+      <c r="D158" t="s">
+        <v>41</v>
+      </c>
+      <c r="E158" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F158" s="17" t="s">
+      <c r="F158" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G158" s="18" t="s">
+      <c r="G158" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="22" t="s">
+      <c r="A159" t="s">
         <v>291</v>
       </c>
-      <c r="B159" s="21" t="s">
+      <c r="B159" t="s">
         <v>259</v>
       </c>
-      <c r="C159" s="21" t="s">
+      <c r="C159" t="s">
         <v>319</v>
       </c>
-      <c r="D159" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E159" s="8" t="s">
+      <c r="D159" t="s">
+        <v>41</v>
+      </c>
+      <c r="E159" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F159" s="8" t="s">
+      <c r="F159" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="20" t="s">
+      <c r="A160" t="s">
         <v>154</v>
       </c>
-      <c r="B160" s="21" t="s">
+      <c r="B160" t="s">
         <v>79</v>
       </c>
-      <c r="C160" s="21" t="s">
+      <c r="C160" t="s">
         <v>160</v>
       </c>
-      <c r="D160" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E160" s="13" t="s">
+      <c r="D160" t="s">
+        <v>41</v>
+      </c>
+      <c r="E160" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F160" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G160" s="14" t="s">
+      <c r="F160" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G160" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="21" t="s">
+      <c r="A161" t="s">
         <v>205</v>
       </c>
-      <c r="B161" s="21" t="s">
+      <c r="B161" t="s">
         <v>79</v>
       </c>
-      <c r="C161" s="21" t="s">
+      <c r="C161" t="s">
         <v>51</v>
       </c>
-      <c r="D161" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E161" s="17" t="s">
+      <c r="D161" t="s">
+        <v>41</v>
+      </c>
+      <c r="E161" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F161" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G161" s="18" t="s">
+      <c r="F161" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G161" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="21" t="s">
+      <c r="A162" t="s">
         <v>206</v>
       </c>
-      <c r="B162" s="21" t="s">
+      <c r="B162" t="s">
         <v>79</v>
       </c>
-      <c r="C162" s="21" t="s">
+      <c r="C162" t="s">
         <v>40</v>
       </c>
-      <c r="D162" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E162" s="17" t="s">
+      <c r="D162" t="s">
+        <v>41</v>
+      </c>
+      <c r="E162" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F162" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" s="18" t="s">
+      <c r="F162" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G162" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="22" t="s">
+      <c r="A163" t="s">
         <v>332</v>
       </c>
-      <c r="B163" s="21" t="s">
+      <c r="B163" t="s">
         <v>79</v>
       </c>
-      <c r="C163" s="22" t="s">
+      <c r="C163" t="s">
         <v>137</v>
       </c>
-      <c r="D163" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E163" s="8" t="s">
+      <c r="D163" t="s">
+        <v>41</v>
+      </c>
+      <c r="E163" s="7" t="s">
         <v>80</v>
       </c>
       <c r="F163" t="s">
         <v>14</v>
       </c>
-      <c r="G163" s="8" t="s">
+      <c r="G163" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="22" t="s">
+      <c r="A164" t="s">
         <v>241</v>
       </c>
-      <c r="B164" s="21" t="s">
+      <c r="B164" t="s">
         <v>79</v>
       </c>
-      <c r="C164" s="22" t="s">
+      <c r="C164" t="s">
         <v>163</v>
       </c>
-      <c r="D164" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E164" s="8" t="s">
+      <c r="D164" t="s">
+        <v>41</v>
+      </c>
+      <c r="E164" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F164" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G164" s="18" t="s">
+      <c r="F164" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G164" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="22" t="s">
+      <c r="A165" t="s">
         <v>242</v>
       </c>
-      <c r="B165" s="21" t="s">
+      <c r="B165" t="s">
         <v>79</v>
       </c>
-      <c r="C165" s="22" t="s">
+      <c r="C165" t="s">
         <v>164</v>
       </c>
-      <c r="D165" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E165" s="8" t="s">
+      <c r="D165" t="s">
+        <v>41</v>
+      </c>
+      <c r="E165" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F165" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G165" s="18" t="s">
+      <c r="F165" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G165" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="22" t="s">
+      <c r="A166" t="s">
         <v>243</v>
       </c>
-      <c r="B166" s="21" t="s">
+      <c r="B166" t="s">
         <v>79</v>
       </c>
-      <c r="C166" s="22" t="s">
+      <c r="C166" t="s">
         <v>166</v>
       </c>
-      <c r="D166" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E166" s="8" t="s">
+      <c r="D166" t="s">
+        <v>41</v>
+      </c>
+      <c r="E166" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F166" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G166" s="18" t="s">
+      <c r="F166" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G166" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:9">
-      <c r="A167" s="22" t="s">
+      <c r="A167" t="s">
         <v>293</v>
       </c>
-      <c r="B167" s="21" t="s">
+      <c r="B167" t="s">
         <v>79</v>
       </c>
-      <c r="C167" s="21" t="s">
+      <c r="C167" t="s">
         <v>319</v>
       </c>
-      <c r="D167" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E167" s="8" t="s">
+      <c r="D167" t="s">
+        <v>41</v>
+      </c>
+      <c r="E167" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F167" s="8" t="s">
+      <c r="F167" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:9">
-      <c r="A168" s="22" t="s">
+      <c r="A168" t="s">
         <v>364</v>
       </c>
-      <c r="B168" s="21" t="s">
+      <c r="B168" t="s">
         <v>46</v>
       </c>
-      <c r="C168" s="21" t="s">
+      <c r="C168" t="s">
         <v>335</v>
       </c>
-      <c r="D168" s="21" t="s">
+      <c r="D168" t="s">
         <v>44</v>
       </c>
-      <c r="E168" s="8" t="s">
+      <c r="E168" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F168" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G168" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I168" s="8" t="s">
+      <c r="F168" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G168" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I168" s="7" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="169" spans="1:9">
-      <c r="A169" s="22" t="s">
+      <c r="A169" t="s">
         <v>365</v>
       </c>
-      <c r="B169" s="21" t="s">
+      <c r="B169" t="s">
         <v>336</v>
       </c>
-      <c r="D169" s="21" t="s">
+      <c r="D169" t="s">
         <v>337</v>
       </c>
-      <c r="E169" s="8" t="s">
+      <c r="E169" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="F169" s="8" t="s">
+      <c r="F169" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="G169" s="8" t="s">
+      <c r="G169" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="H169" s="8" t="s">
+      <c r="H169" s="7" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="170" spans="1:9">
-      <c r="A170" s="22" t="s">
+      <c r="A170" t="s">
         <v>366</v>
       </c>
-      <c r="B170" s="21" t="s">
+      <c r="B170" t="s">
         <v>343</v>
       </c>
-      <c r="D170" s="22" t="s">
+      <c r="D170" t="s">
         <v>337</v>
       </c>
-      <c r="E170" s="8" t="s">
+      <c r="E170" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="F170" s="8" t="s">
+      <c r="F170" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="G170" s="8" t="s">
+      <c r="G170" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="H170" s="8" t="s">
+      <c r="H170" s="7" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="171" spans="1:9">
-      <c r="A171" s="22" t="s">
+      <c r="A171" t="s">
         <v>367</v>
       </c>
-      <c r="B171" s="21" t="s">
+      <c r="B171" t="s">
         <v>347</v>
       </c>
-      <c r="D171" s="22" t="s">
+      <c r="D171" t="s">
         <v>268</v>
       </c>
-      <c r="E171" s="8" t="s">
+      <c r="E171" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F171" s="8" t="s">
+      <c r="F171" s="7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="172" spans="1:9">
-      <c r="A172" s="22" t="s">
+      <c r="A172" t="s">
         <v>368</v>
       </c>
-      <c r="B172" s="21" t="s">
+      <c r="B172" t="s">
         <v>96</v>
       </c>
-      <c r="C172" s="22" t="s">
+      <c r="C172" t="s">
         <v>164</v>
       </c>
-      <c r="D172" s="21" t="s">
+      <c r="D172" t="s">
         <v>268</v>
       </c>
-      <c r="E172" s="8" t="s">
+      <c r="E172" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F172" s="8" t="s">
+      <c r="F172" s="7" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="173" spans="1:9">
-      <c r="A173" s="22" t="s">
+      <c r="A173" t="s">
         <v>369</v>
       </c>
-      <c r="B173" s="21" t="s">
+      <c r="B173" t="s">
         <v>89</v>
       </c>
-      <c r="C173" s="22" t="s">
+      <c r="C173" t="s">
         <v>164</v>
       </c>
-      <c r="D173" s="21" t="s">
+      <c r="D173" t="s">
         <v>268</v>
       </c>
-      <c r="E173" s="8" t="s">
+      <c r="E173" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F173" s="8" t="s">
+      <c r="F173" s="7" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="174" spans="1:9">
-      <c r="A174" s="22" t="s">
+      <c r="A174" t="s">
         <v>370</v>
       </c>
-      <c r="B174" s="21" t="s">
+      <c r="B174" t="s">
         <v>69</v>
       </c>
-      <c r="C174" s="22" t="s">
+      <c r="C174" t="s">
         <v>164</v>
       </c>
-      <c r="D174" s="21" t="s">
+      <c r="D174" t="s">
         <v>268</v>
       </c>
-      <c r="E174" s="8" t="s">
+      <c r="E174" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F174" s="8" t="s">
+      <c r="F174" s="7" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="175" spans="1:9">
-      <c r="A175" s="22" t="s">
+      <c r="A175" t="s">
         <v>371</v>
       </c>
-      <c r="B175" s="21" t="s">
+      <c r="B175" t="s">
         <v>46</v>
       </c>
-      <c r="C175" s="22" t="s">
+      <c r="C175" t="s">
         <v>164</v>
       </c>
-      <c r="D175" s="21" t="s">
+      <c r="D175" t="s">
         <v>268</v>
       </c>
-      <c r="E175" s="8" t="s">
+      <c r="E175" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F175" s="8" t="s">
+      <c r="F175" s="7" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="176" spans="1:9">
-      <c r="A176" s="22" t="s">
+      <c r="A176" t="s">
         <v>372</v>
       </c>
-      <c r="B176" s="21" t="s">
+      <c r="B176" t="s">
         <v>87</v>
       </c>
-      <c r="C176" s="22" t="s">
+      <c r="C176" t="s">
         <v>164</v>
       </c>
-      <c r="D176" s="21" t="s">
+      <c r="D176" t="s">
         <v>268</v>
       </c>
-      <c r="E176" s="8" t="s">
+      <c r="E176" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="F176" s="8" t="s">
+      <c r="F176" s="7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
-      <c r="A177" s="22" t="s">
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
         <v>373</v>
       </c>
-      <c r="B177" s="21" t="s">
+      <c r="B177" t="s">
         <v>83</v>
       </c>
-      <c r="C177" s="22" t="s">
+      <c r="C177" t="s">
         <v>164</v>
       </c>
-      <c r="D177" s="21" t="s">
+      <c r="D177" t="s">
         <v>268</v>
       </c>
-      <c r="E177" s="8" t="s">
+      <c r="E177" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F177" s="8" t="s">
+      <c r="F177" s="7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
-      <c r="A178" s="22" t="s">
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
         <v>374</v>
       </c>
-      <c r="B178" s="21" t="s">
+      <c r="B178" t="s">
         <v>63</v>
       </c>
-      <c r="C178" s="22" t="s">
+      <c r="C178" t="s">
         <v>164</v>
       </c>
-      <c r="D178" s="21" t="s">
+      <c r="D178" t="s">
         <v>268</v>
       </c>
-      <c r="E178" s="8" t="s">
+      <c r="E178" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="F178" s="8" t="s">
+      <c r="F178" s="7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
-      <c r="A179" s="22" t="s">
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
         <v>375</v>
       </c>
-      <c r="B179" s="21" t="s">
+      <c r="B179" t="s">
         <v>85</v>
       </c>
-      <c r="C179" s="22" t="s">
+      <c r="C179" t="s">
         <v>164</v>
       </c>
-      <c r="D179" s="21" t="s">
+      <c r="D179" t="s">
         <v>268</v>
       </c>
-      <c r="E179" s="8" t="s">
+      <c r="E179" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="F179" s="8" t="s">
+      <c r="F179" s="7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
-      <c r="A180" s="22" t="s">
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
         <v>376</v>
       </c>
-      <c r="B180" s="21" t="s">
+      <c r="B180" t="s">
         <v>93</v>
       </c>
-      <c r="C180" s="21" t="s">
+      <c r="C180" t="s">
         <v>164</v>
       </c>
-      <c r="D180" s="21" t="s">
+      <c r="D180" t="s">
         <v>268</v>
       </c>
-      <c r="E180" s="8" t="s">
+      <c r="E180" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="F180" s="8" t="s">
+      <c r="F180" s="7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
-      <c r="A181" s="22" t="s">
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
         <v>377</v>
       </c>
-      <c r="B181" s="21" t="s">
+      <c r="B181" t="s">
         <v>109</v>
       </c>
-      <c r="C181" s="21" t="s">
+      <c r="C181" t="s">
         <v>164</v>
       </c>
-      <c r="D181" s="21" t="s">
+      <c r="D181" t="s">
         <v>268</v>
       </c>
-      <c r="E181" s="8" t="s">
+      <c r="E181" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F181" s="8" t="s">
+      <c r="F181" s="7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
-      <c r="A182" s="22" t="s">
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
         <v>378</v>
       </c>
-      <c r="B182" s="21" t="s">
+      <c r="B182" t="s">
         <v>49</v>
       </c>
-      <c r="C182" s="21" t="s">
+      <c r="C182" t="s">
         <v>164</v>
       </c>
-      <c r="D182" s="21" t="s">
+      <c r="D182" t="s">
         <v>268</v>
       </c>
-      <c r="E182" s="8" t="s">
+      <c r="E182" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F182" s="8" t="s">
+      <c r="F182" s="7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
-      <c r="A183" s="22" t="s">
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
         <v>379</v>
       </c>
-      <c r="B183" s="21" t="s">
+      <c r="B183" t="s">
         <v>56</v>
       </c>
-      <c r="C183" s="22" t="s">
+      <c r="C183" t="s">
         <v>164</v>
       </c>
-      <c r="D183" s="21" t="s">
+      <c r="D183" t="s">
         <v>268</v>
       </c>
-      <c r="E183" s="8" t="s">
+      <c r="E183" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F183" s="8" t="s">
+      <c r="F183" s="7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
-      <c r="A184" s="22" t="s">
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
         <v>380</v>
       </c>
-      <c r="B184" s="21" t="s">
+      <c r="B184" t="s">
         <v>38</v>
       </c>
-      <c r="C184" s="22" t="s">
+      <c r="C184" t="s">
         <v>164</v>
       </c>
-      <c r="D184" s="21" t="s">
+      <c r="D184" t="s">
         <v>268</v>
       </c>
-      <c r="E184" s="8" t="s">
+      <c r="E184" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F184" s="8" t="s">
+      <c r="F184" s="7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="22" t="s">
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
         <v>381</v>
       </c>
-      <c r="B185" s="21" t="s">
+      <c r="B185" t="s">
         <v>79</v>
       </c>
-      <c r="C185" s="22" t="s">
+      <c r="C185" t="s">
         <v>164</v>
       </c>
-      <c r="D185" s="21" t="s">
+      <c r="D185" t="s">
         <v>268</v>
       </c>
-      <c r="E185" s="8" t="s">
+      <c r="E185" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="F185" s="8" t="s">
+      <c r="F185" s="7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="22" t="s">
-        <v>397</v>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>385</v>
       </c>
       <c r="B186" t="s">
-        <v>109</v>
-      </c>
-      <c r="C186" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D186" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="E186" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C186" t="s">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s">
+        <v>249</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F186" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
         <v>386</v>
-      </c>
-      <c r="F186" t="s">
-        <v>8</v>
-      </c>
-      <c r="G186"/>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="A187" s="22" t="s">
-        <v>398</v>
       </c>
       <c r="B187" t="s">
         <v>100</v>
       </c>
-      <c r="C187" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D187" s="21" t="s">
+      <c r="C187" t="s">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s">
         <v>382</v>
       </c>
-      <c r="E187" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="F187" t="s">
-        <v>8</v>
-      </c>
-      <c r="G187"/>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="B188" t="s">
-        <v>38</v>
-      </c>
-      <c r="C188" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D188" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="E188" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="F188" t="s">
-        <v>8</v>
-      </c>
-      <c r="G188" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189" s="22" t="s">
-        <v>400</v>
-      </c>
-      <c r="B189" t="s">
-        <v>49</v>
-      </c>
-      <c r="C189" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D189" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="E189" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="F189" t="s">
-        <v>8</v>
-      </c>
-      <c r="G189" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="B190" t="s">
-        <v>56</v>
-      </c>
-      <c r="C190" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D190" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="E190" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="F190" t="s">
-        <v>8</v>
-      </c>
-      <c r="G190"/>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="A191" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="B191" t="s">
-        <v>385</v>
-      </c>
-      <c r="C191" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D191" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="E191" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="F191" t="s">
-        <v>8</v>
-      </c>
-      <c r="G191" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
-      <c r="A192" s="22" t="s">
-        <v>403</v>
-      </c>
-      <c r="B192" t="s">
-        <v>69</v>
-      </c>
-      <c r="C192" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D192" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="E192" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="F192" t="s">
-        <v>8</v>
-      </c>
-      <c r="G192" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
-      <c r="A193" s="22" t="s">
-        <v>404</v>
-      </c>
-      <c r="B193" t="s">
-        <v>89</v>
-      </c>
-      <c r="C193" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D193" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="E193" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="F193" t="s">
-        <v>14</v>
-      </c>
-      <c r="G193"/>
-    </row>
-    <row r="194" spans="1:7">
-      <c r="A194" s="22" t="s">
-        <v>405</v>
-      </c>
-      <c r="B194" t="s">
-        <v>79</v>
-      </c>
-      <c r="C194" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D194" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="E194" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="F194" t="s">
-        <v>14</v>
-      </c>
-      <c r="G194"/>
-    </row>
-    <row r="195" spans="1:7">
-      <c r="A195" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="B195" t="s">
-        <v>85</v>
-      </c>
-      <c r="C195" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D195" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="E195" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="F195" t="s">
-        <v>14</v>
-      </c>
-      <c r="G195"/>
-    </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="22" t="s">
-        <v>407</v>
-      </c>
-      <c r="B196" t="s">
-        <v>87</v>
-      </c>
-      <c r="C196" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D196" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="E196" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="F196" t="s">
-        <v>14</v>
-      </c>
-      <c r="G196"/>
+      <c r="E187" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F187" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G156" xr:uid="{00000000-0009-0000-0000-000000000000}">
